--- a/Code/Results/Cases/Case_0_172/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_172/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9690129459502775</v>
+        <v>1.027335366613918</v>
       </c>
       <c r="D2">
-        <v>0.9831000881573564</v>
+        <v>1.034881058108953</v>
       </c>
       <c r="E2">
-        <v>0.9792514338428303</v>
+        <v>1.027387393856686</v>
       </c>
       <c r="F2">
-        <v>0.9839751484322335</v>
+        <v>1.042010425207703</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9921616955248835</v>
+        <v>1.032493811895248</v>
       </c>
       <c r="K2">
-        <v>0.9947999970176584</v>
+        <v>1.037679260548263</v>
       </c>
       <c r="L2">
-        <v>0.9910076027173147</v>
+        <v>1.030207270465785</v>
       </c>
       <c r="M2">
-        <v>0.9956623434350897</v>
+        <v>1.044788321311974</v>
       </c>
       <c r="N2">
-        <v>0.9935706789350659</v>
+        <v>1.033960071536853</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9757950761530171</v>
+        <v>1.028727479668757</v>
       </c>
       <c r="D3">
-        <v>0.9891205879891115</v>
+        <v>1.036174129765366</v>
       </c>
       <c r="E3">
-        <v>0.9848385047709777</v>
+        <v>1.028585289557304</v>
       </c>
       <c r="F3">
-        <v>0.9907190830194827</v>
+        <v>1.043473244770951</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9969680692811641</v>
+        <v>1.033523793130702</v>
       </c>
       <c r="K3">
-        <v>0.9998945919524208</v>
+        <v>1.038780324607271</v>
       </c>
       <c r="L3">
-        <v>0.9956691272365982</v>
+        <v>1.031211825966323</v>
       </c>
       <c r="M3">
-        <v>1.001472108599884</v>
+        <v>1.046060176221303</v>
       </c>
       <c r="N3">
-        <v>0.998383878293379</v>
+        <v>1.034991515463784</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.980064910714292</v>
+        <v>1.029627962063278</v>
       </c>
       <c r="D4">
-        <v>0.9929176122713408</v>
+        <v>1.037010819290605</v>
       </c>
       <c r="E4">
-        <v>0.9883629866978056</v>
+        <v>1.029360361741199</v>
       </c>
       <c r="F4">
-        <v>0.9949733208921626</v>
+        <v>1.044420050316334</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9999926801517826</v>
+        <v>1.034189557042109</v>
       </c>
       <c r="K4">
-        <v>1.003102273801683</v>
+        <v>1.039492230414935</v>
       </c>
       <c r="L4">
-        <v>0.9986039193872807</v>
+        <v>1.031861234186113</v>
       </c>
       <c r="M4">
-        <v>1.005132794507732</v>
+        <v>1.046882906415015</v>
       </c>
       <c r="N4">
-        <v>1.001412784458362</v>
+        <v>1.035658224836309</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9818330669698475</v>
+        <v>1.030006456032151</v>
       </c>
       <c r="D5">
-        <v>0.9944914997932558</v>
+        <v>1.037362563931431</v>
       </c>
       <c r="E5">
-        <v>0.9898240740541528</v>
+        <v>1.029686194208471</v>
       </c>
       <c r="F5">
-        <v>0.9967369865184517</v>
+        <v>1.044818154975199</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.001244796050866</v>
+        <v>1.034469279179316</v>
       </c>
       <c r="K5">
-        <v>1.004430583359508</v>
+        <v>1.039791385866541</v>
       </c>
       <c r="L5">
-        <v>0.9998191578228781</v>
+        <v>1.032134103209044</v>
       </c>
       <c r="M5">
-        <v>1.006649360083789</v>
+        <v>1.04722872753168</v>
       </c>
       <c r="N5">
-        <v>1.002666678505642</v>
+        <v>1.035938344211035</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.982128413950567</v>
+        <v>1.030070002940091</v>
       </c>
       <c r="D6">
-        <v>0.9947544841186534</v>
+        <v>1.037421623535709</v>
       </c>
       <c r="E6">
-        <v>0.9900682196553339</v>
+        <v>1.029740902545407</v>
       </c>
       <c r="F6">
-        <v>0.9970316974753431</v>
+        <v>1.044885002595281</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.001453920704604</v>
+        <v>1.034516236174855</v>
       </c>
       <c r="K6">
-        <v>1.0046524575656</v>
+        <v>1.039841607873909</v>
       </c>
       <c r="L6">
-        <v>1.000022140858961</v>
+        <v>1.032179910866666</v>
       </c>
       <c r="M6">
-        <v>1.006902719196995</v>
+        <v>1.047286789329636</v>
       </c>
       <c r="N6">
-        <v>1.002876100140375</v>
+        <v>1.035985367890894</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9800886406042679</v>
+        <v>1.029633019782616</v>
       </c>
       <c r="D7">
-        <v>0.9929387290145592</v>
+        <v>1.037015519313573</v>
       </c>
       <c r="E7">
-        <v>0.9883825893679986</v>
+        <v>1.029364715557515</v>
       </c>
       <c r="F7">
-        <v>0.9949969828054346</v>
+        <v>1.044425369538983</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.000009486038952</v>
+        <v>1.034193295347355</v>
       </c>
       <c r="K7">
-        <v>1.003120100750498</v>
+        <v>1.039496228250307</v>
       </c>
       <c r="L7">
-        <v>0.998620229116278</v>
+        <v>1.031864880830391</v>
       </c>
       <c r="M7">
-        <v>1.005153145346561</v>
+        <v>1.046887527503509</v>
       </c>
       <c r="N7">
-        <v>1.001429614211819</v>
+        <v>1.035661968450378</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9713305236888061</v>
+        <v>1.027805904410676</v>
       </c>
       <c r="D8">
-        <v>0.9851559416744232</v>
+        <v>1.035318062972578</v>
       </c>
       <c r="E8">
-        <v>0.9811590948599466</v>
+        <v>1.027792239882794</v>
       </c>
       <c r="F8">
-        <v>0.9862778558677078</v>
+        <v>1.042504740103737</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.9938043627868623</v>
+        <v>1.032842046354945</v>
       </c>
       <c r="K8">
-        <v>0.9965408116412309</v>
+        <v>1.038051487541046</v>
       </c>
       <c r="L8">
-        <v>0.9926004746620946</v>
+        <v>1.030546892041971</v>
       </c>
       <c r="M8">
-        <v>0.9976469675093649</v>
+        <v>1.045218203762037</v>
       </c>
       <c r="N8">
-        <v>0.9952156789729731</v>
+        <v>1.034308800529408</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.954913484786769</v>
+        <v>1.024583718032479</v>
       </c>
       <c r="D9">
-        <v>0.9706253912267077</v>
+        <v>1.032326648677793</v>
       </c>
       <c r="E9">
-        <v>0.9676805777170469</v>
+        <v>1.025020835944709</v>
       </c>
       <c r="F9">
-        <v>0.970005258806625</v>
+        <v>1.039122160523541</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.9821653759073554</v>
+        <v>1.03045544471044</v>
       </c>
       <c r="K9">
-        <v>0.98421373560285</v>
+        <v>1.035501256147781</v>
       </c>
       <c r="L9">
-        <v>0.9813207231038875</v>
+        <v>1.028219650109889</v>
       </c>
       <c r="M9">
-        <v>0.9836044778011381</v>
+        <v>1.042274586937265</v>
       </c>
       <c r="N9">
-        <v>0.9835601633970873</v>
+        <v>1.031918809636821</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9431895025140409</v>
+        <v>1.022433556368671</v>
       </c>
       <c r="D10">
-        <v>0.9602948937115603</v>
+        <v>1.030331945821978</v>
       </c>
       <c r="E10">
-        <v>0.9581053417558795</v>
+        <v>1.023172691857871</v>
       </c>
       <c r="F10">
-        <v>0.9584379423287848</v>
+        <v>1.036868042639147</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.9738536480301737</v>
+        <v>1.028860455335134</v>
       </c>
       <c r="K10">
-        <v>0.9754200528108244</v>
+        <v>1.033797918677249</v>
       </c>
       <c r="L10">
-        <v>0.9732745861655451</v>
+        <v>1.026664755764723</v>
       </c>
       <c r="M10">
-        <v>0.9736004729423033</v>
+        <v>1.040310542663704</v>
       </c>
       <c r="N10">
-        <v>0.9752366319129512</v>
+        <v>1.030321555193654</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9378975529467778</v>
+        <v>1.021501961062661</v>
       </c>
       <c r="D11">
-        <v>0.9556446151501328</v>
+        <v>1.029468062673377</v>
       </c>
       <c r="E11">
-        <v>0.9537972872271833</v>
+        <v>1.022372250587148</v>
       </c>
       <c r="F11">
-        <v>0.9532306834470046</v>
+        <v>1.035892142708853</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.9701032542897269</v>
+        <v>1.028168831217057</v>
       </c>
       <c r="K11">
-        <v>0.9714544585569923</v>
+        <v>1.033059551325</v>
       </c>
       <c r="L11">
-        <v>0.9696464861036156</v>
+        <v>1.025990620762613</v>
       </c>
       <c r="M11">
-        <v>0.9690919937670188</v>
+        <v>1.039459646155184</v>
       </c>
       <c r="N11">
-        <v>0.9714809121832167</v>
+        <v>1.029628948889998</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9358965460953667</v>
+        <v>1.021155834842575</v>
       </c>
       <c r="D12">
-        <v>0.953888305788881</v>
+        <v>1.029147148739438</v>
       </c>
       <c r="E12">
-        <v>0.952170613373463</v>
+        <v>1.022074899577407</v>
       </c>
       <c r="F12">
-        <v>0.9512639209288799</v>
+        <v>1.035529666700691</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.9686854718135324</v>
+        <v>1.027911779487191</v>
       </c>
       <c r="K12">
-        <v>0.9699556659604285</v>
+        <v>1.032785162737395</v>
       </c>
       <c r="L12">
-        <v>0.9682753328573769</v>
+        <v>1.025740084775816</v>
       </c>
       <c r="M12">
-        <v>0.967388433001099</v>
+        <v>1.039143512426874</v>
       </c>
       <c r="N12">
-        <v>0.9700611162932843</v>
+        <v>1.029371532117192</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9363274200485399</v>
+        <v>1.021230084271147</v>
       </c>
       <c r="D13">
-        <v>0.9542663933033808</v>
+        <v>1.029215987267473</v>
       </c>
       <c r="E13">
-        <v>0.9525207755522483</v>
+        <v>1.022138683868013</v>
       </c>
       <c r="F13">
-        <v>0.9516873187695857</v>
+        <v>1.035607418369639</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.9689907439787264</v>
+        <v>1.027966924887085</v>
       </c>
       <c r="K13">
-        <v>0.9702783654007573</v>
+        <v>1.032844025794328</v>
       </c>
       <c r="L13">
-        <v>0.9685705465149266</v>
+        <v>1.025793831638828</v>
       </c>
       <c r="M13">
-        <v>0.967755202003899</v>
+        <v>1.039211327561785</v>
       </c>
       <c r="N13">
-        <v>0.970366821979968</v>
+        <v>1.029426755829879</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9377328886035614</v>
+        <v>1.021473352036747</v>
       </c>
       <c r="D14">
-        <v>0.9555000442275692</v>
+        <v>1.029441536451704</v>
       </c>
       <c r="E14">
-        <v>0.9536633791712863</v>
+        <v>1.022347672125561</v>
       </c>
       <c r="F14">
-        <v>0.9530687913040096</v>
+        <v>1.035862180020939</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.9699865765132292</v>
+        <v>1.028147586359625</v>
       </c>
       <c r="K14">
-        <v>0.9713311069904124</v>
+        <v>1.033036872875255</v>
       </c>
       <c r="L14">
-        <v>0.9695336374756222</v>
+        <v>1.025969914098747</v>
       </c>
       <c r="M14">
-        <v>0.9689517813863463</v>
+        <v>1.03943351595779</v>
       </c>
       <c r="N14">
-        <v>0.9713640687108933</v>
+        <v>1.029607673862432</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9385940656658361</v>
+        <v>1.021623225199579</v>
       </c>
       <c r="D15">
-        <v>0.9562562198738533</v>
+        <v>1.029580500729455</v>
       </c>
       <c r="E15">
-        <v>0.9543637988370421</v>
+        <v>1.022476432395782</v>
       </c>
       <c r="F15">
-        <v>0.9539155611004646</v>
+        <v>1.036019149125892</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.9705968029913</v>
+        <v>1.028258877628021</v>
       </c>
       <c r="K15">
-        <v>0.9719762514681194</v>
+        <v>1.033155675493107</v>
       </c>
       <c r="L15">
-        <v>0.9701238538092511</v>
+        <v>1.026078386680774</v>
       </c>
       <c r="M15">
-        <v>0.9696851267928396</v>
+        <v>1.039570403757194</v>
       </c>
       <c r="N15">
-        <v>0.9719751617805569</v>
+        <v>1.029719123177195</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9435359275272517</v>
+        <v>1.02249537095221</v>
       </c>
       <c r="D16">
-        <v>0.9605995891738029</v>
+        <v>1.030389275054379</v>
       </c>
       <c r="E16">
-        <v>0.95838766445998</v>
+        <v>1.023225810315806</v>
       </c>
       <c r="F16">
-        <v>0.9587791226687352</v>
+        <v>1.036932812547738</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.9740991967383666</v>
+        <v>1.028906335092201</v>
       </c>
       <c r="K16">
-        <v>0.9756797384749678</v>
+        <v>1.033846904238985</v>
       </c>
       <c r="L16">
-        <v>0.9735121812023219</v>
+        <v>1.026709477544683</v>
       </c>
       <c r="M16">
-        <v>0.9738957678046561</v>
+        <v>1.040367003912549</v>
       </c>
       <c r="N16">
-        <v>0.9754825293284746</v>
+        <v>1.030367500105239</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9465761680832719</v>
+        <v>1.023042290525656</v>
       </c>
       <c r="D17">
-        <v>0.9632750601090508</v>
+        <v>1.030896550708069</v>
       </c>
       <c r="E17">
-        <v>0.9608669436616963</v>
+        <v>1.023695823532942</v>
       </c>
       <c r="F17">
-        <v>0.9617749280358535</v>
+        <v>1.0375059651788</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.9762543076575773</v>
+        <v>1.029312201989157</v>
       </c>
       <c r="K17">
-        <v>0.9779591817742521</v>
+        <v>1.034280273659996</v>
       </c>
       <c r="L17">
-        <v>0.9755977656126552</v>
+        <v>1.027105112521694</v>
       </c>
       <c r="M17">
-        <v>0.9764881055621881</v>
+        <v>1.040866565566367</v>
       </c>
       <c r="N17">
-        <v>0.9776407007523849</v>
+        <v>1.030773943379742</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9483289268464826</v>
+        <v>1.023361245723391</v>
       </c>
       <c r="D18">
-        <v>0.9648187040684638</v>
+        <v>1.031192420542775</v>
       </c>
       <c r="E18">
-        <v>0.9622976005516406</v>
+        <v>1.023969956938422</v>
       </c>
       <c r="F18">
-        <v>0.9635033755907549</v>
+        <v>1.037840290067524</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.9774968888652045</v>
+        <v>1.029548842692931</v>
       </c>
       <c r="K18">
-        <v>0.9792736628599739</v>
+        <v>1.034532972750476</v>
       </c>
       <c r="L18">
-        <v>0.9768004886253269</v>
+        <v>1.027335797419521</v>
       </c>
       <c r="M18">
-        <v>0.9779832994702115</v>
+        <v>1.041157908113015</v>
       </c>
       <c r="N18">
-        <v>0.9788850465678534</v>
+        <v>1.031010920140458</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9489231693118396</v>
+        <v>1.023469992267761</v>
       </c>
       <c r="D19">
-        <v>0.9653422457890009</v>
+        <v>1.031293302027151</v>
       </c>
       <c r="E19">
-        <v>0.9627828555602573</v>
+        <v>1.024063426523683</v>
       </c>
       <c r="F19">
-        <v>0.9640895940119755</v>
+        <v>1.03795428886812</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.9779181808342349</v>
+        <v>1.029629515134556</v>
       </c>
       <c r="K19">
-        <v>0.9797193682436619</v>
+        <v>1.034619123514041</v>
       </c>
       <c r="L19">
-        <v>0.9772083048696304</v>
+        <v>1.0274144411618</v>
       </c>
       <c r="M19">
-        <v>0.97849032736345</v>
+        <v>1.041257241193648</v>
       </c>
       <c r="N19">
-        <v>0.9793069368198026</v>
+        <v>1.031091707146203</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.946252126268362</v>
+        <v>1.022983616834215</v>
       </c>
       <c r="D20">
-        <v>0.962989773088586</v>
+        <v>1.030842126466818</v>
       </c>
       <c r="E20">
-        <v>0.9606025547477738</v>
+        <v>1.023645397388189</v>
       </c>
       <c r="F20">
-        <v>0.9614554857460538</v>
+        <v>1.037444469851583</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.9760245937136162</v>
+        <v>1.029268666126463</v>
       </c>
       <c r="K20">
-        <v>0.9777161930499578</v>
+        <v>1.034233785318249</v>
       </c>
       <c r="L20">
-        <v>0.9753754385331612</v>
+        <v>1.02706267317257</v>
       </c>
       <c r="M20">
-        <v>0.9762117336948866</v>
+        <v>1.040812971845881</v>
       </c>
       <c r="N20">
-        <v>0.9774106605882754</v>
+        <v>1.030730345691129</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9373200145357201</v>
+        <v>1.021401718282093</v>
       </c>
       <c r="D21">
-        <v>0.9551375855801045</v>
+        <v>1.029375118684259</v>
       </c>
       <c r="E21">
-        <v>0.9533276601215301</v>
+        <v>1.022286131194175</v>
       </c>
       <c r="F21">
-        <v>0.9526629043159472</v>
+        <v>1.03578715864874</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.9696940281256987</v>
+        <v>1.028094390279943</v>
       </c>
       <c r="K21">
-        <v>0.9710218308168327</v>
+        <v>1.032980087730962</v>
       </c>
       <c r="L21">
-        <v>0.9692506964879677</v>
+        <v>1.025918065883094</v>
       </c>
       <c r="M21">
-        <v>0.9686002371163626</v>
+        <v>1.039368089064449</v>
       </c>
       <c r="N21">
-        <v>0.9710711048710968</v>
+        <v>1.029554402238215</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9314978087094099</v>
+        <v>1.020406590792213</v>
       </c>
       <c r="D22">
-        <v>0.9500314837073021</v>
+        <v>1.028452580996317</v>
       </c>
       <c r="E22">
-        <v>0.9485992352489337</v>
+        <v>1.021431322430793</v>
       </c>
       <c r="F22">
-        <v>0.946944702979565</v>
+        <v>1.034745235042275</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.965569568369812</v>
+        <v>1.027355196534637</v>
       </c>
       <c r="K22">
-        <v>0.9666623610037419</v>
+        <v>1.03219110674453</v>
       </c>
       <c r="L22">
-        <v>0.9652626763964642</v>
+        <v>1.025197638956193</v>
       </c>
       <c r="M22">
-        <v>0.963645925648961</v>
+        <v>1.038459209809446</v>
       </c>
       <c r="N22">
-        <v>0.9669407879092745</v>
+        <v>1.028814158753005</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9346049145773145</v>
+        <v>1.020934178464496</v>
       </c>
       <c r="D23">
-        <v>0.9527552286523647</v>
+        <v>1.028941653519685</v>
       </c>
       <c r="E23">
-        <v>0.9511212850719439</v>
+        <v>1.021884491537471</v>
       </c>
       <c r="F23">
-        <v>0.949995036167501</v>
+        <v>1.035297571435952</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.967770415314346</v>
+        <v>1.027747141878149</v>
       </c>
       <c r="K23">
-        <v>0.9689884216101826</v>
+        <v>1.032609431254528</v>
       </c>
       <c r="L23">
-        <v>0.9673904875674233</v>
+        <v>1.025579624834042</v>
       </c>
       <c r="M23">
-        <v>0.9662891553839023</v>
+        <v>1.038941065744513</v>
       </c>
       <c r="N23">
-        <v>0.9691447603089108</v>
+        <v>1.02920666070386</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.94639861013852</v>
+        <v>1.023010129115449</v>
       </c>
       <c r="D24">
-        <v>0.9631187341030832</v>
+        <v>1.030866718486321</v>
       </c>
       <c r="E24">
-        <v>0.9607220683494724</v>
+        <v>1.023668182845848</v>
       </c>
       <c r="F24">
-        <v>0.9615998863414745</v>
+        <v>1.037472256897304</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.9761284360916364</v>
+        <v>1.02928833840087</v>
       </c>
       <c r="K24">
-        <v>0.9778260356420245</v>
+        <v>1.034254791639458</v>
       </c>
       <c r="L24">
-        <v>0.97547594096405</v>
+        <v>1.027081849941721</v>
       </c>
       <c r="M24">
-        <v>0.9763366662123837</v>
+        <v>1.040837188674796</v>
       </c>
       <c r="N24">
-        <v>0.9775146504343828</v>
+        <v>1.030750045902421</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9592856486312346</v>
+        <v>1.025417067088078</v>
       </c>
       <c r="D25">
-        <v>0.9744877620878963</v>
+        <v>1.033100058618121</v>
       </c>
       <c r="E25">
-        <v>0.9712622083984395</v>
+        <v>1.025737390675231</v>
       </c>
       <c r="F25">
-        <v>0.9743302068517997</v>
+        <v>1.039996452642755</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.985265437016154</v>
+        <v>1.031073114602026</v>
       </c>
       <c r="K25">
-        <v>0.9874954693268913</v>
+        <v>1.036161097295538</v>
       </c>
       <c r="L25">
-        <v>0.9843236491217634</v>
+        <v>1.028821883351618</v>
       </c>
       <c r="M25">
-        <v>0.9873405281127635</v>
+        <v>1.04303585180819</v>
       </c>
       <c r="N25">
-        <v>0.9866646269482422</v>
+        <v>1.032537356690501</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_172/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_172/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.027335366613918</v>
+        <v>0.9690129459502779</v>
       </c>
       <c r="D2">
-        <v>1.034881058108953</v>
+        <v>0.9831000881573565</v>
       </c>
       <c r="E2">
-        <v>1.027387393856686</v>
+        <v>0.9792514338428304</v>
       </c>
       <c r="F2">
-        <v>1.042010425207703</v>
+        <v>0.9839751484322338</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1.032493811895248</v>
+        <v>0.9921616955248836</v>
       </c>
       <c r="K2">
-        <v>1.037679260548263</v>
+        <v>0.9947999970176586</v>
       </c>
       <c r="L2">
-        <v>1.030207270465785</v>
+        <v>0.9910076027173149</v>
       </c>
       <c r="M2">
-        <v>1.044788321311974</v>
+        <v>0.99566234343509</v>
       </c>
       <c r="N2">
-        <v>1.033960071536853</v>
+        <v>0.9935706789350661</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.028727479668757</v>
+        <v>0.975795076153016</v>
       </c>
       <c r="D3">
-        <v>1.036174129765366</v>
+        <v>0.9891205879891107</v>
       </c>
       <c r="E3">
-        <v>1.028585289557304</v>
+        <v>0.9848385047709768</v>
       </c>
       <c r="F3">
-        <v>1.043473244770951</v>
+        <v>0.9907190830194824</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.033523793130702</v>
+        <v>0.9969680692811632</v>
       </c>
       <c r="K3">
-        <v>1.038780324607271</v>
+        <v>0.99989459195242</v>
       </c>
       <c r="L3">
-        <v>1.031211825966323</v>
+        <v>0.9956691272365974</v>
       </c>
       <c r="M3">
-        <v>1.046060176221303</v>
+        <v>1.001472108599884</v>
       </c>
       <c r="N3">
-        <v>1.034991515463784</v>
+        <v>0.9983838782933782</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.029627962063278</v>
+        <v>0.9800649107142918</v>
       </c>
       <c r="D4">
-        <v>1.037010819290605</v>
+        <v>0.9929176122713402</v>
       </c>
       <c r="E4">
-        <v>1.029360361741199</v>
+        <v>0.988362986697805</v>
       </c>
       <c r="F4">
-        <v>1.044420050316334</v>
+        <v>0.9949733208921621</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.034189557042109</v>
+        <v>0.9999926801517822</v>
       </c>
       <c r="K4">
-        <v>1.039492230414935</v>
+        <v>1.003102273801683</v>
       </c>
       <c r="L4">
-        <v>1.031861234186113</v>
+        <v>0.9986039193872801</v>
       </c>
       <c r="M4">
-        <v>1.046882906415015</v>
+        <v>1.005132794507731</v>
       </c>
       <c r="N4">
-        <v>1.035658224836309</v>
+        <v>1.001412784458361</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.030006456032151</v>
+        <v>0.9818330669698483</v>
       </c>
       <c r="D5">
-        <v>1.037362563931431</v>
+        <v>0.9944914997932566</v>
       </c>
       <c r="E5">
-        <v>1.029686194208471</v>
+        <v>0.9898240740541538</v>
       </c>
       <c r="F5">
-        <v>1.044818154975199</v>
+        <v>0.9967369865184526</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.034469279179316</v>
+        <v>1.001244796050867</v>
       </c>
       <c r="K5">
-        <v>1.039791385866541</v>
+        <v>1.004430583359509</v>
       </c>
       <c r="L5">
-        <v>1.032134103209044</v>
+        <v>0.999819157822879</v>
       </c>
       <c r="M5">
-        <v>1.04722872753168</v>
+        <v>1.00664936008379</v>
       </c>
       <c r="N5">
-        <v>1.035938344211035</v>
+        <v>1.002666678505642</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.030070002940091</v>
+        <v>0.9821284139505667</v>
       </c>
       <c r="D6">
-        <v>1.037421623535709</v>
+        <v>0.9947544841186534</v>
       </c>
       <c r="E6">
-        <v>1.029740902545407</v>
+        <v>0.9900682196553336</v>
       </c>
       <c r="F6">
-        <v>1.044885002595281</v>
+        <v>0.9970316974753431</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.034516236174855</v>
+        <v>1.001453920704604</v>
       </c>
       <c r="K6">
-        <v>1.039841607873909</v>
+        <v>1.0046524575656</v>
       </c>
       <c r="L6">
-        <v>1.032179910866666</v>
+        <v>1.000022140858961</v>
       </c>
       <c r="M6">
-        <v>1.047286789329636</v>
+        <v>1.006902719196995</v>
       </c>
       <c r="N6">
-        <v>1.035985367890894</v>
+        <v>1.002876100140375</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.029633019782616</v>
+        <v>0.9800886406042674</v>
       </c>
       <c r="D7">
-        <v>1.037015519313573</v>
+        <v>0.9929387290145586</v>
       </c>
       <c r="E7">
-        <v>1.029364715557515</v>
+        <v>0.9883825893679978</v>
       </c>
       <c r="F7">
-        <v>1.044425369538983</v>
+        <v>0.9949969828054342</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.034193295347355</v>
+        <v>1.000009486038952</v>
       </c>
       <c r="K7">
-        <v>1.039496228250307</v>
+        <v>1.003120100750497</v>
       </c>
       <c r="L7">
-        <v>1.031864880830391</v>
+        <v>0.9986202291162772</v>
       </c>
       <c r="M7">
-        <v>1.046887527503509</v>
+        <v>1.005153145346561</v>
       </c>
       <c r="N7">
-        <v>1.035661968450378</v>
+        <v>1.001429614211818</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.027805904410676</v>
+        <v>0.9713305236888066</v>
       </c>
       <c r="D8">
-        <v>1.035318062972578</v>
+        <v>0.9851559416744236</v>
       </c>
       <c r="E8">
-        <v>1.027792239882794</v>
+        <v>0.9811590948599472</v>
       </c>
       <c r="F8">
-        <v>1.042504740103737</v>
+        <v>0.9862778558677083</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.032842046354945</v>
+        <v>0.9938043627868628</v>
       </c>
       <c r="K8">
-        <v>1.038051487541046</v>
+        <v>0.9965408116412312</v>
       </c>
       <c r="L8">
-        <v>1.030546892041971</v>
+        <v>0.9926004746620951</v>
       </c>
       <c r="M8">
-        <v>1.045218203762037</v>
+        <v>0.9976469675093653</v>
       </c>
       <c r="N8">
-        <v>1.034308800529408</v>
+        <v>0.9952156789729738</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.024583718032479</v>
+        <v>0.9549134847867686</v>
       </c>
       <c r="D9">
-        <v>1.032326648677793</v>
+        <v>0.9706253912267074</v>
       </c>
       <c r="E9">
-        <v>1.025020835944709</v>
+        <v>0.9676805777170467</v>
       </c>
       <c r="F9">
-        <v>1.039122160523541</v>
+        <v>0.9700052588066251</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.03045544471044</v>
+        <v>0.9821653759073553</v>
       </c>
       <c r="K9">
-        <v>1.035501256147781</v>
+        <v>0.98421373560285</v>
       </c>
       <c r="L9">
-        <v>1.028219650109889</v>
+        <v>0.9813207231038874</v>
       </c>
       <c r="M9">
-        <v>1.042274586937265</v>
+        <v>0.983604477801138</v>
       </c>
       <c r="N9">
-        <v>1.031918809636821</v>
+        <v>0.9835601633970871</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.022433556368671</v>
+        <v>0.9431895025140399</v>
       </c>
       <c r="D10">
-        <v>1.030331945821978</v>
+        <v>0.9602948937115592</v>
       </c>
       <c r="E10">
-        <v>1.023172691857871</v>
+        <v>0.9581053417558781</v>
       </c>
       <c r="F10">
-        <v>1.036868042639147</v>
+        <v>0.9584379423287837</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1.028860455335134</v>
+        <v>0.9738536480301727</v>
       </c>
       <c r="K10">
-        <v>1.033797918677249</v>
+        <v>0.9754200528108232</v>
       </c>
       <c r="L10">
-        <v>1.026664755764723</v>
+        <v>0.9732745861655443</v>
       </c>
       <c r="M10">
-        <v>1.040310542663704</v>
+        <v>0.9736004729423025</v>
       </c>
       <c r="N10">
-        <v>1.030321555193654</v>
+        <v>0.9752366319129503</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.021501961062661</v>
+        <v>0.9378975529467781</v>
       </c>
       <c r="D11">
-        <v>1.029468062673377</v>
+        <v>0.9556446151501332</v>
       </c>
       <c r="E11">
-        <v>1.022372250587148</v>
+        <v>0.9537972872271839</v>
       </c>
       <c r="F11">
-        <v>1.035892142708853</v>
+        <v>0.9532306834470046</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1.028168831217057</v>
+        <v>0.9701032542897271</v>
       </c>
       <c r="K11">
-        <v>1.033059551325</v>
+        <v>0.9714544585569925</v>
       </c>
       <c r="L11">
-        <v>1.025990620762613</v>
+        <v>0.969646486103616</v>
       </c>
       <c r="M11">
-        <v>1.039459646155184</v>
+        <v>0.9690919937670192</v>
       </c>
       <c r="N11">
-        <v>1.029628948889998</v>
+        <v>0.9714809121832171</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.021155834842575</v>
+        <v>0.9358965460953668</v>
       </c>
       <c r="D12">
-        <v>1.029147148739438</v>
+        <v>0.9538883057888811</v>
       </c>
       <c r="E12">
-        <v>1.022074899577407</v>
+        <v>0.9521706133734632</v>
       </c>
       <c r="F12">
-        <v>1.035529666700691</v>
+        <v>0.9512639209288803</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1.027911779487191</v>
+        <v>0.9686854718135325</v>
       </c>
       <c r="K12">
-        <v>1.032785162737395</v>
+        <v>0.9699556659604288</v>
       </c>
       <c r="L12">
-        <v>1.025740084775816</v>
+        <v>0.9682753328573771</v>
       </c>
       <c r="M12">
-        <v>1.039143512426874</v>
+        <v>0.9673884330010992</v>
       </c>
       <c r="N12">
-        <v>1.029371532117192</v>
+        <v>0.9700611162932844</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.021230084271147</v>
+        <v>0.9363274200485378</v>
       </c>
       <c r="D13">
-        <v>1.029215987267473</v>
+        <v>0.9542663933033787</v>
       </c>
       <c r="E13">
-        <v>1.022138683868013</v>
+        <v>0.9525207755522462</v>
       </c>
       <c r="F13">
-        <v>1.035607418369639</v>
+        <v>0.9516873187695832</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1.027966924887085</v>
+        <v>0.9689907439787244</v>
       </c>
       <c r="K13">
-        <v>1.032844025794328</v>
+        <v>0.9702783654007552</v>
       </c>
       <c r="L13">
-        <v>1.025793831638828</v>
+        <v>0.9685705465149247</v>
       </c>
       <c r="M13">
-        <v>1.039211327561785</v>
+        <v>0.9677552020038966</v>
       </c>
       <c r="N13">
-        <v>1.029426755829879</v>
+        <v>0.9703668219799664</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.021473352036747</v>
+        <v>0.937732888603561</v>
       </c>
       <c r="D14">
-        <v>1.029441536451704</v>
+        <v>0.9555000442275686</v>
       </c>
       <c r="E14">
-        <v>1.022347672125561</v>
+        <v>0.9536633791712857</v>
       </c>
       <c r="F14">
-        <v>1.035862180020939</v>
+        <v>0.9530687913040089</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1.028147586359625</v>
+        <v>0.9699865765132287</v>
       </c>
       <c r="K14">
-        <v>1.033036872875255</v>
+        <v>0.9713311069904117</v>
       </c>
       <c r="L14">
-        <v>1.025969914098747</v>
+        <v>0.9695336374756216</v>
       </c>
       <c r="M14">
-        <v>1.03943351595779</v>
+        <v>0.9689517813863456</v>
       </c>
       <c r="N14">
-        <v>1.029607673862432</v>
+        <v>0.9713640687108929</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.021623225199579</v>
+        <v>0.9385940656658361</v>
       </c>
       <c r="D15">
-        <v>1.029580500729455</v>
+        <v>0.9562562198738533</v>
       </c>
       <c r="E15">
-        <v>1.022476432395782</v>
+        <v>0.9543637988370423</v>
       </c>
       <c r="F15">
-        <v>1.036019149125892</v>
+        <v>0.9539155611004645</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.028258877628021</v>
+        <v>0.9705968029913</v>
       </c>
       <c r="K15">
-        <v>1.033155675493107</v>
+        <v>0.9719762514681192</v>
       </c>
       <c r="L15">
-        <v>1.026078386680774</v>
+        <v>0.970123853809251</v>
       </c>
       <c r="M15">
-        <v>1.039570403757194</v>
+        <v>0.9696851267928394</v>
       </c>
       <c r="N15">
-        <v>1.029719123177195</v>
+        <v>0.9719751617805569</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.02249537095221</v>
+        <v>0.9435359275272519</v>
       </c>
       <c r="D16">
-        <v>1.030389275054379</v>
+        <v>0.9605995891738033</v>
       </c>
       <c r="E16">
-        <v>1.023225810315806</v>
+        <v>0.95838766445998</v>
       </c>
       <c r="F16">
-        <v>1.036932812547738</v>
+        <v>0.9587791226687357</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1.028906335092201</v>
+        <v>0.9740991967383668</v>
       </c>
       <c r="K16">
-        <v>1.033846904238985</v>
+        <v>0.9756797384749679</v>
       </c>
       <c r="L16">
-        <v>1.026709477544683</v>
+        <v>0.9735121812023217</v>
       </c>
       <c r="M16">
-        <v>1.040367003912549</v>
+        <v>0.9738957678046565</v>
       </c>
       <c r="N16">
-        <v>1.030367500105239</v>
+        <v>0.9754825293284746</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.023042290525656</v>
+        <v>0.9465761680832709</v>
       </c>
       <c r="D17">
-        <v>1.030896550708069</v>
+        <v>0.9632750601090501</v>
       </c>
       <c r="E17">
-        <v>1.023695823532942</v>
+        <v>0.9608669436616956</v>
       </c>
       <c r="F17">
-        <v>1.0375059651788</v>
+        <v>0.9617749280358528</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1.029312201989157</v>
+        <v>0.9762543076575765</v>
       </c>
       <c r="K17">
-        <v>1.034280273659996</v>
+        <v>0.9779591817742515</v>
       </c>
       <c r="L17">
-        <v>1.027105112521694</v>
+        <v>0.9755977656126543</v>
       </c>
       <c r="M17">
-        <v>1.040866565566367</v>
+        <v>0.9764881055621876</v>
       </c>
       <c r="N17">
-        <v>1.030773943379742</v>
+        <v>0.9776407007523844</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.023361245723391</v>
+        <v>0.9483289268464825</v>
       </c>
       <c r="D18">
-        <v>1.031192420542775</v>
+        <v>0.9648187040684632</v>
       </c>
       <c r="E18">
-        <v>1.023969956938422</v>
+        <v>0.9622976005516399</v>
       </c>
       <c r="F18">
-        <v>1.037840290067524</v>
+        <v>0.9635033755907545</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1.029548842692931</v>
+        <v>0.9774968888652041</v>
       </c>
       <c r="K18">
-        <v>1.034532972750476</v>
+        <v>0.9792736628599732</v>
       </c>
       <c r="L18">
-        <v>1.027335797419521</v>
+        <v>0.976800488625326</v>
       </c>
       <c r="M18">
-        <v>1.041157908113015</v>
+        <v>0.9779832994702108</v>
       </c>
       <c r="N18">
-        <v>1.031010920140458</v>
+        <v>0.9788850465678528</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.023469992267761</v>
+        <v>0.9489231693118391</v>
       </c>
       <c r="D19">
-        <v>1.031293302027151</v>
+        <v>0.9653422457890005</v>
       </c>
       <c r="E19">
-        <v>1.024063426523683</v>
+        <v>0.9627828555602569</v>
       </c>
       <c r="F19">
-        <v>1.03795428886812</v>
+        <v>0.9640895940119749</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1.029629515134556</v>
+        <v>0.9779181808342344</v>
       </c>
       <c r="K19">
-        <v>1.034619123514041</v>
+        <v>0.9797193682436615</v>
       </c>
       <c r="L19">
-        <v>1.0274144411618</v>
+        <v>0.9772083048696298</v>
       </c>
       <c r="M19">
-        <v>1.041257241193648</v>
+        <v>0.9784903273634494</v>
       </c>
       <c r="N19">
-        <v>1.031091707146203</v>
+        <v>0.9793069368198021</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.022983616834215</v>
+        <v>0.9462521262683616</v>
       </c>
       <c r="D20">
-        <v>1.030842126466818</v>
+        <v>0.9629897730885856</v>
       </c>
       <c r="E20">
-        <v>1.023645397388189</v>
+        <v>0.9606025547477733</v>
       </c>
       <c r="F20">
-        <v>1.037444469851583</v>
+        <v>0.9614554857460533</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1.029268666126463</v>
+        <v>0.9760245937136157</v>
       </c>
       <c r="K20">
-        <v>1.034233785318249</v>
+        <v>0.9777161930499575</v>
       </c>
       <c r="L20">
-        <v>1.02706267317257</v>
+        <v>0.9753754385331608</v>
       </c>
       <c r="M20">
-        <v>1.040812971845881</v>
+        <v>0.9762117336948859</v>
       </c>
       <c r="N20">
-        <v>1.030730345691129</v>
+        <v>0.9774106605882747</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.021401718282093</v>
+        <v>0.9373200145357197</v>
       </c>
       <c r="D21">
-        <v>1.029375118684259</v>
+        <v>0.9551375855801034</v>
       </c>
       <c r="E21">
-        <v>1.022286131194175</v>
+        <v>0.9533276601215295</v>
       </c>
       <c r="F21">
-        <v>1.03578715864874</v>
+        <v>0.9526629043159464</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1.028094390279943</v>
+        <v>0.9696940281256982</v>
       </c>
       <c r="K21">
-        <v>1.032980087730962</v>
+        <v>0.9710218308168319</v>
       </c>
       <c r="L21">
-        <v>1.025918065883094</v>
+        <v>0.9692506964879668</v>
       </c>
       <c r="M21">
-        <v>1.039368089064449</v>
+        <v>0.9686002371163615</v>
       </c>
       <c r="N21">
-        <v>1.029554402238215</v>
+        <v>0.9710711048710964</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.020406590792213</v>
+        <v>0.9314978087094103</v>
       </c>
       <c r="D22">
-        <v>1.028452580996317</v>
+        <v>0.9500314837073025</v>
       </c>
       <c r="E22">
-        <v>1.021431322430793</v>
+        <v>0.9485992352489341</v>
       </c>
       <c r="F22">
-        <v>1.034745235042275</v>
+        <v>0.9469447029795655</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1.027355196534637</v>
+        <v>0.9655695683698124</v>
       </c>
       <c r="K22">
-        <v>1.03219110674453</v>
+        <v>0.9666623610037424</v>
       </c>
       <c r="L22">
-        <v>1.025197638956193</v>
+        <v>0.9652626763964648</v>
       </c>
       <c r="M22">
-        <v>1.038459209809446</v>
+        <v>0.9636459256489615</v>
       </c>
       <c r="N22">
-        <v>1.028814158753005</v>
+        <v>0.9669407879092751</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.020934178464496</v>
+        <v>0.9346049145773135</v>
       </c>
       <c r="D23">
-        <v>1.028941653519685</v>
+        <v>0.9527552286523637</v>
       </c>
       <c r="E23">
-        <v>1.021884491537471</v>
+        <v>0.9511212850719428</v>
       </c>
       <c r="F23">
-        <v>1.035297571435952</v>
+        <v>0.9499950361674999</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1.027747141878149</v>
+        <v>0.9677704153143449</v>
       </c>
       <c r="K23">
-        <v>1.032609431254528</v>
+        <v>0.9689884216101815</v>
       </c>
       <c r="L23">
-        <v>1.025579624834042</v>
+        <v>0.9673904875674221</v>
       </c>
       <c r="M23">
-        <v>1.038941065744513</v>
+        <v>0.9662891553839014</v>
       </c>
       <c r="N23">
-        <v>1.02920666070386</v>
+        <v>0.9691447603089096</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.023010129115449</v>
+        <v>0.9463986101385189</v>
       </c>
       <c r="D24">
-        <v>1.030866718486321</v>
+        <v>0.963118734103082</v>
       </c>
       <c r="E24">
-        <v>1.023668182845848</v>
+        <v>0.9607220683494713</v>
       </c>
       <c r="F24">
-        <v>1.037472256897304</v>
+        <v>0.9615998863414735</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>1.02928833840087</v>
+        <v>0.9761284360916354</v>
       </c>
       <c r="K24">
-        <v>1.034254791639458</v>
+        <v>0.9778260356420233</v>
       </c>
       <c r="L24">
-        <v>1.027081849941721</v>
+        <v>0.9754759409640488</v>
       </c>
       <c r="M24">
-        <v>1.040837188674796</v>
+        <v>0.9763366662123825</v>
       </c>
       <c r="N24">
-        <v>1.030750045902421</v>
+        <v>0.9775146504343819</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.025417067088078</v>
+        <v>0.9592856486312337</v>
       </c>
       <c r="D25">
-        <v>1.033100058618121</v>
+        <v>0.9744877620878956</v>
       </c>
       <c r="E25">
-        <v>1.025737390675231</v>
+        <v>0.9712622083984385</v>
       </c>
       <c r="F25">
-        <v>1.039996452642755</v>
+        <v>0.9743302068517989</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1.031073114602026</v>
+        <v>0.985265437016153</v>
       </c>
       <c r="K25">
-        <v>1.036161097295538</v>
+        <v>0.9874954693268905</v>
       </c>
       <c r="L25">
-        <v>1.028821883351618</v>
+        <v>0.9843236491217625</v>
       </c>
       <c r="M25">
-        <v>1.04303585180819</v>
+        <v>0.9873405281127626</v>
       </c>
       <c r="N25">
-        <v>1.032537356690501</v>
+        <v>0.9866646269482413</v>
       </c>
     </row>
   </sheetData>
